--- a/frontend/public/templates/[Company_Name]_Standard_Income_Statement.xlsx
+++ b/frontend/public/templates/[Company_Name]_Standard_Income_Statement.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,329 +518,434 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>二、营业总成本</t>
+          <t>营业总收入其他项目</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>营业成本</t>
+          <t>二、营业总成本</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>利息支出</t>
+          <t>营业成本</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>手续费及佣金支出</t>
+          <t>利息支出</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>营业税金及附加</t>
+          <t>手续费及佣金支出</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>销售费用</t>
+          <t>营业税金及附加</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>管理费用</t>
+          <t>销售费用</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>研发费用</t>
+          <t>管理费用</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>财务费用</t>
+          <t>研发费用</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>其中:利息费用</t>
+          <t>财务费用</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>其中:利息收入</t>
+          <t>其中:利息费用</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>资产减值损失</t>
+          <t>其中:利息收入</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>信用减值损失</t>
+          <t>资产减值损失</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>退保金</t>
+          <t>信用减值损失</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>赔付支出净额</t>
+          <t>退保金</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>提取保险合同准备金净额</t>
+          <t>赔付支出净额</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>保单红利支出</t>
+          <t>提取保险合同准备金净额</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>分保费用</t>
+          <t>保单红利支出</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>其他业务成本</t>
+          <t>分保费用</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>加:其他收益</t>
+          <t>其他业务成本</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>投资收益</t>
+          <t>营业总成本其他项目</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>其中:对联营企业和合营企业的投资收益</t>
+          <t>加:其他收益</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>公允价值变动收益</t>
+          <t>投资收益</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>汇兑收益</t>
+          <t>其中:对联营企业和合营企业的投资收益</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>资产处置收益</t>
+          <t>公允价值变动收益</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>净敞口套期收益</t>
+          <t>汇兑收益</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>三、营业利润</t>
+          <t>资产处置收益</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>加:营业外收入</t>
+          <t>净敞口套期收益</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>减:营业外支出</t>
+          <t>资产减值损失(新)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>非流动资产处置利得</t>
+          <t>信用减值损失(新)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>非流动资产处置净损失</t>
+          <t>营业利润其他项目</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>四、利润总额</t>
+          <t>营业利润平衡项目</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>减:所得税费用</t>
+          <t>三、营业利润</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>五、净利润</t>
+          <t>加:营业外收入</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>持续经营净利润</t>
+          <t>减:营业外支出</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>终止经营净利润</t>
+          <t>非流动资产处置利得</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>归属于母公司所有者的净利润</t>
+          <t>非流动资产处置净损失</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>少数股东损益</t>
+          <t>影响利润总额的其他项目</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>扣除非经常性损益后的净利润</t>
+          <t>利润总额平衡项目</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>基本每股收益</t>
+          <t>四、利润总额</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>稀释每股收益</t>
+          <t>减:所得税费用</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>六、其他综合收益的税后净额</t>
+          <t>未确认投资损失</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>归属于母公司所有者的其他综合收益的税后净额</t>
+          <t>影响净利润的其他项目</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>归属于少数股东的其他综合收益的税后净额</t>
+          <t>净利润差额(合计平衡项目2)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>七、综合收益总额</t>
+          <t>五、净利润</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>归属于母公司所有者的综合收益总额</t>
+          <t>持续经营净利润</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>终止经营净利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>归属于母公司所有者的净利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>少数股东损益</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>被合并方在合并前实现利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>扣除非经常性损益后的净利润</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>净利润其他项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>净利润差额(合计平衡项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>基本每股收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>稀释每股收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>六、其他综合收益的税后净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>归属于母公司所有者的其他综合收益的税后净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>归属于少数股东的其他综合收益的税后净额</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>七、综合收益总额</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>归属于母公司所有者的综合收益总额</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>归属于少数股东的综合收益总额</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>以摊余成本计量的金融资产终止确认收益</t>
         </is>
       </c>
     </row>
